--- a/src/main/resources/gsis/excel/jgAtitle/a01.xlsx
+++ b/src/main/resources/gsis/excel/jgAtitle/a01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangjinhyeog/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\info\project\gsis.kwdi.re.kr\src\main\resources\gsis\excel\jgAtitle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A34B8-059C-3D48-8144-0B6C1C3015FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C91B7-6953-45BA-ACD3-2C1A0C63108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="980" windowWidth="30960" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>전 체</t>
   </si>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>외국인 전 체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,10 @@
   </si>
   <si>
     <t>외국인 여성 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,14 +469,14 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="14.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
@@ -499,23 +499,25 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>2005</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="4">
         <v>559747</v>
       </c>
@@ -545,7 +547,9 @@
       <c r="A3" s="4">
         <v>2010</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="4">
         <v>577187</v>
       </c>
@@ -575,7 +579,9 @@
       <c r="A4" s="4">
         <v>2011</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="4">
         <v>583284</v>
       </c>
@@ -605,7 +611,9 @@
       <c r="A5" s="4">
         <v>2012</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="4">
         <v>592449</v>
       </c>
@@ -635,7 +643,9 @@
       <c r="A6" s="4">
         <v>2013</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="4">
         <v>604670</v>
       </c>
@@ -665,7 +675,9 @@
       <c r="A7" s="4">
         <v>2014</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="4">
         <v>621550</v>
       </c>
@@ -695,7 +707,9 @@
       <c r="A8" s="4">
         <v>2015</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="4">
         <v>641355</v>
       </c>
@@ -725,7 +739,9 @@
       <c r="A9" s="4">
         <v>2016</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="4">
         <v>661190</v>
       </c>
@@ -755,7 +771,9 @@
       <c r="A10" s="4">
         <v>2017</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" s="4">
         <v>678772</v>
       </c>
@@ -785,7 +803,9 @@
       <c r="A11" s="4">
         <v>2018</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="4">
         <v>692032</v>
       </c>
@@ -815,7 +835,9 @@
       <c r="A12" s="4">
         <v>2019</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="4">
         <v>696657</v>
       </c>
@@ -845,7 +867,9 @@
       <c r="A13" s="4">
         <v>2020</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="5">
         <v>697578</v>
       </c>
@@ -876,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4">
         <v>675883</v>
@@ -906,5 +930,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>